--- a/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias39Loss.xlsx
+++ b/Program/Other/Sharepoint上傳用/URS會議審查紀錄/DbLayouts/L7-介接外部系統/Ias39Loss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\SKL\DB\GenTables\L7-介接外部系統\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C67B4EC5-2125-4A9B-A11D-EEC75F2D9DFD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{843B5E5E-7BCE-451C-8532-81ACD6B66FDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DBD" sheetId="4" r:id="rId1"/>
@@ -214,10 +214,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>DATE</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>建檔人員</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -330,6 +326,9 @@
 99:其他 
 add 2021/12/2</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>TIMESTAMP</t>
   </si>
 </sst>
 </file>
@@ -522,7 +521,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -538,7 +537,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -547,7 +546,7 @@
     <xf numFmtId="49" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -565,9 +564,6 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
@@ -589,7 +585,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -601,7 +597,7 @@
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -641,9 +637,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -681,9 +677,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -716,26 +712,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -768,26 +747,9 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -964,104 +926,104 @@
   <dimension ref="A1:K105"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.44140625" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.21875" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.88671875" style="14" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" style="1" customWidth="1"/>
     <col min="4" max="4" width="20.6640625" style="4" customWidth="1"/>
     <col min="5" max="6" width="6" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="32.44140625" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="18" t="s">
+      <c r="B1" s="31"/>
+      <c r="C1" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="22"/>
+      <c r="E1" s="21"/>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="31"/>
-      <c r="B2" s="32"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
       <c r="C2" s="6" t="s">
         <v>11</v>
       </c>
       <c r="D2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="22"/>
+      <c r="E2" s="21"/>
       <c r="F2" s="8"/>
       <c r="G2" s="8"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="18" t="s">
-        <v>46</v>
-      </c>
-      <c r="D3" s="19" t="s">
+      <c r="B3" s="31"/>
+      <c r="C3" s="17" t="s">
+        <v>45</v>
+      </c>
+      <c r="D3" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="E3" s="22"/>
+      <c r="E3" s="21"/>
       <c r="F3" s="8"/>
       <c r="G3" s="8"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="31" t="s">
+      <c r="A4" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="32"/>
+      <c r="B4" s="31"/>
       <c r="C4" s="9"/>
       <c r="D4" s="10"/>
-      <c r="E4" s="22"/>
+      <c r="E4" s="21"/>
       <c r="F4" s="8"/>
       <c r="G4" s="8"/>
-      <c r="K4" s="15"/>
+      <c r="K4" s="14"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="B5" s="32"/>
+      <c r="B5" s="31"/>
       <c r="C5" s="13"/>
       <c r="D5" s="10"/>
-      <c r="E5" s="22"/>
+      <c r="E5" s="21"/>
       <c r="F5" s="8"/>
       <c r="G5" s="8"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="31" t="s">
+      <c r="A6" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="32"/>
+      <c r="B6" s="31"/>
       <c r="C6" s="13"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="22"/>
+      <c r="E6" s="21"/>
       <c r="F6" s="8"/>
       <c r="G6" s="8"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="31" t="s">
+      <c r="A7" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="B7" s="32"/>
+      <c r="B7" s="31"/>
       <c r="C7" s="13"/>
       <c r="D7" s="10"/>
-      <c r="E7" s="22"/>
+      <c r="E7" s="21"/>
       <c r="F7" s="8"/>
       <c r="G7" s="8"/>
     </row>
@@ -1093,7 +1055,7 @@
         <v>1</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>27</v>
@@ -1101,10 +1063,10 @@
       <c r="D9" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E9" s="20">
+      <c r="E9" s="19">
         <v>7</v>
       </c>
-      <c r="F9" s="20"/>
+      <c r="F9" s="19"/>
       <c r="G9" s="11"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.3">
@@ -1112,7 +1074,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>28</v>
@@ -1120,10 +1082,10 @@
       <c r="D10" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="20">
+      <c r="E10" s="19">
         <v>3</v>
       </c>
-      <c r="F10" s="20"/>
+      <c r="F10" s="19"/>
       <c r="G10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.3">
@@ -1131,7 +1093,7 @@
         <v>3</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>29</v>
@@ -1139,10 +1101,10 @@
       <c r="D11" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="20">
+      <c r="E11" s="19">
         <v>8</v>
       </c>
-      <c r="F11" s="20"/>
+      <c r="F11" s="19"/>
       <c r="G11" s="11"/>
     </row>
     <row r="12" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
@@ -1150,7 +1112,7 @@
         <v>4</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>30</v>
@@ -1158,75 +1120,75 @@
       <c r="D12" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E12" s="20">
+      <c r="E12" s="19">
         <v>1</v>
       </c>
-      <c r="F12" s="20"/>
+      <c r="F12" s="19"/>
       <c r="G12" s="11" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="48.6" x14ac:dyDescent="0.3">
       <c r="A13" s="11">
         <v>5</v>
       </c>
-      <c r="B13" s="25" t="s">
-        <v>59</v>
-      </c>
-      <c r="C13" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="D13" s="25" t="s">
+      <c r="B13" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D13" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="27">
+      <c r="E13" s="26">
         <v>2</v>
       </c>
-      <c r="F13" s="28"/>
-      <c r="G13" s="25" t="s">
-        <v>63</v>
+      <c r="F13" s="27"/>
+      <c r="G13" s="24" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="11">
         <v>6</v>
       </c>
-      <c r="B14" s="25" t="s">
-        <v>60</v>
-      </c>
-      <c r="C14" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="E14" s="27">
+      <c r="B14" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14" s="28" t="s">
+        <v>53</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="26">
         <v>500</v>
       </c>
-      <c r="F14" s="30"/>
-      <c r="G14" s="25" t="s">
-        <v>58</v>
+      <c r="F14" s="29"/>
+      <c r="G14" s="24" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="11">
         <v>7</v>
       </c>
-      <c r="B15" s="25" t="s">
-        <v>61</v>
-      </c>
-      <c r="C15" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="D15" s="25" t="s">
+      <c r="B15" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="C15" s="28" t="s">
+        <v>54</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="27">
+      <c r="E15" s="26">
         <v>2</v>
       </c>
-      <c r="F15" s="30"/>
-      <c r="G15" s="25" t="s">
-        <v>57</v>
+      <c r="F15" s="29"/>
+      <c r="G15" s="24" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.3">
@@ -1234,7 +1196,7 @@
         <v>8</v>
       </c>
       <c r="B16" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C16" s="11" t="s">
         <v>32</v>
@@ -1242,10 +1204,10 @@
       <c r="D16" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="20">
+      <c r="E16" s="19">
         <v>8</v>
       </c>
-      <c r="F16" s="20"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="11"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.3">
@@ -1253,7 +1215,7 @@
         <v>9</v>
       </c>
       <c r="B17" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C17" s="11" t="s">
         <v>33</v>
@@ -1261,50 +1223,48 @@
       <c r="D17" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="E17" s="20">
+      <c r="E17" s="19">
         <v>8</v>
       </c>
-      <c r="F17" s="20"/>
+      <c r="F17" s="19"/>
       <c r="G17" s="11"/>
-      <c r="H17" s="21"/>
+      <c r="H17" s="20"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="11">
         <v>10</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="16" t="s">
         <v>22</v>
       </c>
       <c r="C18" s="11" t="s">
         <v>34</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E18" s="20">
-        <v>8</v>
-      </c>
-      <c r="F18" s="20"/>
+        <v>63</v>
+      </c>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
       <c r="G18" s="11"/>
-      <c r="H18" s="21"/>
+      <c r="H18" s="20"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="11">
         <v>11</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="16" t="s">
         <v>23</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="D19" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E19" s="20">
+      <c r="E19" s="19">
         <v>6</v>
       </c>
-      <c r="F19" s="20"/>
+      <c r="F19" s="19"/>
       <c r="G19" s="11"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.3">
@@ -1315,15 +1275,13 @@
         <v>18</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E20" s="20">
-        <v>8</v>
-      </c>
-      <c r="F20" s="20"/>
+        <v>63</v>
+      </c>
+      <c r="E20" s="19"/>
+      <c r="F20" s="19"/>
       <c r="G20" s="11"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.3">
@@ -1334,15 +1292,15 @@
         <v>19</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E21" s="20">
+        <v>36</v>
+      </c>
+      <c r="E21" s="19">
         <v>6</v>
       </c>
-      <c r="F21" s="20"/>
+      <c r="F21" s="19"/>
       <c r="G21" s="11"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.3">
@@ -1350,7 +1308,7 @@
       <c r="B23" s="11"/>
       <c r="C23" s="13"/>
       <c r="D23" s="11"/>
-      <c r="E23" s="20"/>
+      <c r="E23" s="19"/>
       <c r="F23" s="12"/>
       <c r="G23" s="11"/>
     </row>
@@ -1377,9 +1335,9 @@
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="24"/>
-      <c r="F27" s="24"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="11"/>
@@ -1396,7 +1354,7 @@
       <c r="B31" s="11"/>
       <c r="C31" s="13"/>
       <c r="D31" s="11"/>
-      <c r="E31" s="20"/>
+      <c r="E31" s="19"/>
       <c r="F31" s="12"/>
       <c r="G31" s="11"/>
     </row>
@@ -1480,7 +1438,7 @@
       <c r="B47" s="11"/>
       <c r="C47" s="13"/>
       <c r="D47" s="11"/>
-      <c r="E47" s="20"/>
+      <c r="E47" s="19"/>
       <c r="F47" s="11"/>
       <c r="G47" s="11"/>
     </row>
@@ -1489,7 +1447,7 @@
       <c r="B48" s="11"/>
       <c r="C48" s="13"/>
       <c r="D48" s="11"/>
-      <c r="E48" s="20"/>
+      <c r="E48" s="19"/>
       <c r="F48" s="11"/>
       <c r="G48" s="11"/>
     </row>
@@ -1498,7 +1456,7 @@
       <c r="B49" s="11"/>
       <c r="C49" s="13"/>
       <c r="D49" s="11"/>
-      <c r="E49" s="20"/>
+      <c r="E49" s="19"/>
       <c r="F49" s="11"/>
       <c r="G49" s="11"/>
     </row>
@@ -1507,7 +1465,7 @@
       <c r="B50" s="11"/>
       <c r="C50" s="13"/>
       <c r="D50" s="11"/>
-      <c r="E50" s="20"/>
+      <c r="E50" s="19"/>
       <c r="F50" s="11"/>
       <c r="G50" s="11"/>
     </row>
@@ -1516,7 +1474,7 @@
       <c r="B51" s="11"/>
       <c r="C51" s="13"/>
       <c r="D51" s="11"/>
-      <c r="E51" s="20"/>
+      <c r="E51" s="19"/>
       <c r="F51" s="11"/>
       <c r="G51" s="11"/>
     </row>
@@ -1525,7 +1483,7 @@
       <c r="B52" s="11"/>
       <c r="C52" s="13"/>
       <c r="D52" s="11"/>
-      <c r="E52" s="20"/>
+      <c r="E52" s="19"/>
       <c r="F52" s="11"/>
       <c r="G52" s="11"/>
     </row>
@@ -1534,7 +1492,7 @@
       <c r="B53" s="11"/>
       <c r="C53" s="13"/>
       <c r="D53" s="11"/>
-      <c r="E53" s="20"/>
+      <c r="E53" s="19"/>
       <c r="F53" s="11"/>
       <c r="G53" s="11"/>
     </row>
@@ -1543,7 +1501,7 @@
       <c r="B54" s="11"/>
       <c r="C54" s="13"/>
       <c r="D54" s="11"/>
-      <c r="E54" s="20"/>
+      <c r="E54" s="19"/>
       <c r="F54" s="11"/>
       <c r="G54" s="11"/>
     </row>
@@ -1552,7 +1510,7 @@
       <c r="B55" s="11"/>
       <c r="C55" s="13"/>
       <c r="D55" s="11"/>
-      <c r="E55" s="20"/>
+      <c r="E55" s="19"/>
       <c r="F55" s="11"/>
       <c r="G55" s="11"/>
     </row>
@@ -1561,7 +1519,7 @@
       <c r="B56" s="11"/>
       <c r="C56" s="13"/>
       <c r="D56" s="11"/>
-      <c r="E56" s="20"/>
+      <c r="E56" s="19"/>
       <c r="F56" s="11"/>
       <c r="G56" s="11"/>
     </row>
@@ -1570,7 +1528,7 @@
       <c r="B57" s="11"/>
       <c r="C57" s="13"/>
       <c r="D57" s="11"/>
-      <c r="E57" s="20"/>
+      <c r="E57" s="19"/>
       <c r="F57" s="11"/>
       <c r="G57" s="11"/>
     </row>
@@ -1579,7 +1537,7 @@
       <c r="B58" s="11"/>
       <c r="C58" s="13"/>
       <c r="D58" s="11"/>
-      <c r="E58" s="20"/>
+      <c r="E58" s="19"/>
       <c r="F58" s="11"/>
       <c r="G58" s="11"/>
     </row>
@@ -1588,7 +1546,7 @@
       <c r="B59" s="11"/>
       <c r="C59" s="13"/>
       <c r="D59" s="11"/>
-      <c r="E59" s="20"/>
+      <c r="E59" s="19"/>
       <c r="F59" s="11"/>
       <c r="G59" s="11"/>
     </row>
@@ -1597,7 +1555,7 @@
       <c r="B60" s="11"/>
       <c r="C60" s="13"/>
       <c r="D60" s="11"/>
-      <c r="E60" s="20"/>
+      <c r="E60" s="19"/>
       <c r="F60" s="11"/>
       <c r="G60" s="11"/>
     </row>
@@ -1606,7 +1564,7 @@
       <c r="B61" s="11"/>
       <c r="C61" s="13"/>
       <c r="D61" s="11"/>
-      <c r="E61" s="20"/>
+      <c r="E61" s="19"/>
       <c r="F61" s="11"/>
       <c r="G61" s="11"/>
     </row>
@@ -1615,7 +1573,7 @@
       <c r="B62" s="11"/>
       <c r="C62" s="13"/>
       <c r="D62" s="11"/>
-      <c r="E62" s="20"/>
+      <c r="E62" s="19"/>
       <c r="F62" s="11"/>
       <c r="G62" s="11"/>
     </row>
@@ -1624,7 +1582,7 @@
       <c r="B63" s="11"/>
       <c r="C63" s="13"/>
       <c r="D63" s="11"/>
-      <c r="E63" s="20"/>
+      <c r="E63" s="19"/>
       <c r="F63" s="11"/>
       <c r="G63" s="11"/>
     </row>
@@ -1633,7 +1591,7 @@
       <c r="B64" s="11"/>
       <c r="C64" s="13"/>
       <c r="D64" s="11"/>
-      <c r="E64" s="20"/>
+      <c r="E64" s="19"/>
       <c r="F64" s="11"/>
       <c r="G64" s="11"/>
     </row>
@@ -1642,7 +1600,7 @@
       <c r="B65" s="11"/>
       <c r="C65" s="13"/>
       <c r="D65" s="11"/>
-      <c r="E65" s="20"/>
+      <c r="E65" s="19"/>
       <c r="F65" s="11"/>
       <c r="G65" s="11"/>
     </row>
@@ -1651,7 +1609,7 @@
       <c r="B66" s="11"/>
       <c r="C66" s="13"/>
       <c r="D66" s="11"/>
-      <c r="E66" s="20"/>
+      <c r="E66" s="19"/>
       <c r="F66" s="11"/>
       <c r="G66" s="11"/>
     </row>
@@ -1660,7 +1618,7 @@
       <c r="B67" s="11"/>
       <c r="C67" s="13"/>
       <c r="D67" s="11"/>
-      <c r="E67" s="20"/>
+      <c r="E67" s="19"/>
       <c r="F67" s="11"/>
       <c r="G67" s="11"/>
     </row>
@@ -1669,7 +1627,7 @@
       <c r="B68" s="11"/>
       <c r="C68" s="13"/>
       <c r="D68" s="11"/>
-      <c r="E68" s="20"/>
+      <c r="E68" s="19"/>
       <c r="F68" s="11"/>
       <c r="G68" s="11"/>
     </row>
@@ -1678,7 +1636,7 @@
       <c r="B69" s="11"/>
       <c r="C69" s="13"/>
       <c r="D69" s="11"/>
-      <c r="E69" s="20"/>
+      <c r="E69" s="19"/>
       <c r="F69" s="11"/>
       <c r="G69" s="11"/>
     </row>
@@ -1687,7 +1645,7 @@
       <c r="B70" s="11"/>
       <c r="C70" s="13"/>
       <c r="D70" s="11"/>
-      <c r="E70" s="20"/>
+      <c r="E70" s="19"/>
       <c r="F70" s="11"/>
       <c r="G70" s="11"/>
     </row>
@@ -1728,7 +1686,7 @@
       <c r="B82" s="11"/>
       <c r="C82" s="13"/>
       <c r="D82" s="11"/>
-      <c r="E82" s="20"/>
+      <c r="E82" s="19"/>
     </row>
     <row r="83" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C83" s="13"/>
@@ -1812,24 +1770,24 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C2" s="1" t="s">
         <v>48</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>
